--- a/vendas.xlsx
+++ b/vendas.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+  <si>
+    <t>Nome</t>
+  </si>
   <si>
     <t>Peça</t>
   </si>
@@ -23,25 +26,73 @@
     <t>Área</t>
   </si>
   <si>
-    <t>Poltronas</t>
+    <t>Poltrona</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Peça 2</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t>Plateia A</t>
+  </si>
+  <si>
+    <t>Usuário Teste</t>
+  </si>
+  <si>
+    <t>CPF Não Encontrado</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Frisa</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Peça 3</t>
+  </si>
+  <si>
+    <t>Noite</t>
+  </si>
+  <si>
+    <t>Plateia B</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>96655682215</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
   <si>
     <t>Peça 1</t>
   </si>
   <si>
+    <t>H1</t>
+  </si>
+  <si>
     <t>Manhã</t>
   </si>
   <si>
-    <t>Plateia A</t>
-  </si>
-  <si>
-    <t>Ocupada Ocupada Ocupada Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre</t>
-  </si>
-  <si>
-    <t>Plateia B</t>
-  </si>
-  <si>
-    <t>Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre Livre</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>O4</t>
   </si>
 </sst>
 </file>
@@ -86,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,33 +156,191 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>9</v>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/vendas.xlsx
+++ b/vendas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Nome</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>O4</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -343,6 +346,26 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
